--- a/data/Map145.xlsx
+++ b/data/Map145.xlsx
@@ -441,7 +441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,103 +449,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/Map145.xlsx
+++ b/data/Map145.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA2AC83-F732-430E-870A-2436C12BB20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>ロメリア</t>
   </si>
@@ -103,22 +109,96 @@
     <t>\n&lt;サンタ&gt;逃げたいからって、
 ここから飛び降りるのはやめておいた方がいいよ。
 ボクは猫だから平気だけど、キミはちゃんとカルシウム取ってる？</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Good afternoon.
+I'm Santa, the white cat.
+It's unusual to see a human around here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Why are you so surprised?
+Cats can talk too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;By the way, do you know Ako?
+She was late coming home, so I got worried and
+came to check on her. I found all the exits sealed off.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Escape game, hmm.
+So you're both locked in here.
+That's a bit of a problem.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Ah, that's right.
+I picked up a key down there a little while ago.
+I don't know what it's for.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Well, best of luck escaping.
+If you manage to get out safe, don't wait up for me.
+Please give Ako my regards.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;If you're trying to escape, I wouldn't advise
+jumping from here. I'm a cat, so I have no problem, but...
+Well... How is your calcium intake?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Right!
+Let's get out of here before Lily finds us!
+Santa! Thank you so much for the rope!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Save your thanks for after we escape safely!
+Cash is acceptable!
+100000G should be good!</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;It's rather pathetic that humans cannot
+jump down from this height.
+Take care on your way down.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;I accept crunchy cat treats.
+Only the highest quality brands.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;I'm so sorry, Ako.
+I pegged you to be the same as the other succubi.
+Thank you for saving us. And you, white cat.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;100000!?
+...
+You bastard! You're charging us!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'm so sorry, Ako.
+I assumed you were just the same as the other succubi.
+Thank you for rescuing us. Santa too!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;100000G...!?
+...
+I suppose we'll have to live off of bean sprouts for a while...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,28 +206,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -437,19 +532,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -473,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -481,71 +578,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -553,74 +674,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>